--- a/New folder/Book1.xlsx
+++ b/New folder/Book1.xlsx
@@ -4,18 +4,22 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Continent" sheetId="1" r:id="rId1"/>
-    <sheet name="Country" sheetId="4" r:id="rId2"/>
+    <sheet name="Port" sheetId="7" r:id="rId1"/>
+    <sheet name="Continent" sheetId="1" r:id="rId2"/>
+    <sheet name="Country" sheetId="4" r:id="rId3"/>
+    <sheet name="City" sheetId="6" r:id="rId4"/>
+    <sheet name="Airport" sheetId="8" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="65">
   <si>
     <t>Field Name</t>
   </si>
@@ -174,6 +178,42 @@
   </si>
   <si>
     <t>Associations</t>
+  </si>
+  <si>
+    <t>Name, Abbrevatio , Continental Id cannot null</t>
+  </si>
+  <si>
+    <t>Table Name : Country</t>
+  </si>
+  <si>
+    <t>Table Name : City</t>
+  </si>
+  <si>
+    <t>CountryId</t>
+  </si>
+  <si>
+    <t>FK ID(Country)</t>
+  </si>
+  <si>
+    <t>Name, Abbrevatio , Country Id cannot null</t>
+  </si>
+  <si>
+    <t>Table Name : Port</t>
+  </si>
+  <si>
+    <t>CityId</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>FK ID(City)</t>
+  </si>
+  <si>
+    <t>Name, Abbrevatio , City Id cannot null</t>
+  </si>
+  <si>
+    <t>Table Name : AirPort</t>
   </si>
 </sst>
 </file>
@@ -229,7 +269,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -252,24 +292,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -287,8 +329,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -590,10 +640,375 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.28515625" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" customWidth="1"/>
+    <col min="4" max="4" width="45.5703125" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="42.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="57.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="10"/>
+      <c r="G2" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="13"/>
+      <c r="K2" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="L2" s="13"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" s="3"/>
+      <c r="G3" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="G4" s="6">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" s="6">
+        <v>1</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="G5" s="7">
+        <v>2</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="K5" s="7">
+        <v>2</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="G6" s="7">
+        <v>3</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K6" s="2">
+        <v>3</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M6" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="G7" s="7">
+        <v>4</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="K7" s="2">
+        <v>4</v>
+      </c>
+      <c r="L7" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="M7" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="K8" s="2">
+        <v>5</v>
+      </c>
+      <c r="L8" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="M8" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K9" s="2">
+        <v>6</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="M9" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K10" s="2">
+        <v>7</v>
+      </c>
+      <c r="L10" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="M10" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="K2:L2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -609,319 +1024,318 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="2"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="13"/>
-      <c r="G2" s="6" t="s">
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="10"/>
+      <c r="G2" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="H2" s="6"/>
-      <c r="K2" s="6" t="s">
+      <c r="H2" s="13"/>
+      <c r="K2" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="L2" s="6"/>
+      <c r="L2" s="13"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="8" t="s">
+      <c r="F3" s="3"/>
+      <c r="G3" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="K3" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="L3" s="7" t="s">
+      <c r="L3" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="M3" s="7" t="s">
+      <c r="M3" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="4" t="s">
+      <c r="B4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="15"/>
-      <c r="G4" s="9">
+      <c r="E4" s="2"/>
+      <c r="G4" s="6">
         <v>1</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="K4" s="9">
+      <c r="K4" s="6">
         <v>1</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="L4" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="M4" s="2" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="4" t="s">
+      <c r="C5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="15"/>
-      <c r="G5" s="10">
+      <c r="E5" s="2"/>
+      <c r="G5" s="7">
         <v>2</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I5" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="K5" s="10">
+      <c r="K5" s="7">
         <v>2</v>
       </c>
-      <c r="L5" s="4" t="s">
+      <c r="L5" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="M5" s="4" t="s">
+      <c r="M5" s="2" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="15"/>
-      <c r="G6" s="10">
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="G6" s="7">
         <v>3</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="I6" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="K6" s="4">
+      <c r="K6" s="2">
         <v>3</v>
       </c>
-      <c r="L6" s="11" t="s">
+      <c r="L6" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="M6" s="11" t="s">
+      <c r="M6" s="8" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="15"/>
-      <c r="G7" s="10">
-        <v>4</v>
-      </c>
-      <c r="H7" s="4" t="s">
+      <c r="C7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="G7" s="7">
+        <v>4</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="I7" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="K7" s="4">
-        <v>4</v>
-      </c>
-      <c r="L7" s="11" t="s">
+      <c r="K7" s="2">
+        <v>4</v>
+      </c>
+      <c r="L7" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="M7" s="11" t="s">
+      <c r="M7" s="8" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="4" t="s">
+      <c r="B8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="15"/>
-      <c r="K8" s="4">
+      <c r="K8" s="2">
         <v>5</v>
       </c>
-      <c r="L8" s="11" t="s">
+      <c r="L8" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="M8" s="11" t="s">
+      <c r="M8" s="8" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="4" t="s">
+      <c r="B9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="15"/>
-      <c r="K9" s="4">
+      <c r="K9" s="2">
         <v>6</v>
       </c>
-      <c r="L9" s="11" t="s">
+      <c r="L9" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="M9" s="11" t="s">
+      <c r="M9" s="8" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="15"/>
-      <c r="K10" s="4">
+      <c r="C10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="K10" s="2">
         <v>7</v>
       </c>
-      <c r="L10" s="11" t="s">
+      <c r="L10" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="M10" s="11" t="s">
+      <c r="M10" s="8" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="4" t="s">
+      <c r="B11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="15"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="15"/>
+      <c r="C12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="15"/>
+      <c r="C13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="15"/>
+      <c r="C14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -935,12 +1349,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:H4"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -949,201 +1363,1101 @@
     <col min="2" max="2" width="22.42578125" customWidth="1"/>
     <col min="3" max="3" width="15.28515625" customWidth="1"/>
     <col min="4" max="4" width="45.5703125" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="42.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="57.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="2"/>
-    </row>
-    <row r="2" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="1" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="10"/>
+      <c r="G2" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="13"/>
+      <c r="K2" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="L2" s="13"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="E3" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" s="3"/>
+      <c r="G3" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="4" t="s">
+      <c r="B4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="E4" s="2"/>
+      <c r="G4" s="6">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="K4" s="6">
+        <v>1</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="E5" s="2"/>
+      <c r="G5" s="7">
+        <v>2</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="K5" s="7">
+        <v>2</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="4"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="G6" s="7">
+        <v>3</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="K6" s="2">
+        <v>3</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M6" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="4"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="C7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="G7" s="7">
+        <v>4</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="K7" s="2">
+        <v>4</v>
+      </c>
+      <c r="L7" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="M7" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="4" t="s">
+      <c r="B8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="2"/>
+      <c r="E8" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="K8" s="2">
+        <v>5</v>
+      </c>
+      <c r="L8" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="M8" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="4" t="s">
+      <c r="B9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="K9" s="2">
+        <v>6</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="M9" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="4"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="C10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="K10" s="2">
+        <v>7</v>
+      </c>
+      <c r="L10" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="M10" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="4" t="s">
+      <c r="B11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="4"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+      <c r="C12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="4"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+      <c r="C13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="4"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+      <c r="C14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="4"/>
+      <c r="C15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="K2:L2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.28515625" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" customWidth="1"/>
+    <col min="4" max="4" width="45.5703125" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="42.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="57.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="10"/>
+      <c r="G2" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="13"/>
+      <c r="K2" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="L2" s="13"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" s="3"/>
+      <c r="G3" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="G4" s="6">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="K4" s="6">
+        <v>1</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="G5" s="7">
+        <v>2</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="K5" s="7">
+        <v>2</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="G6" s="7">
+        <v>3</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="K6" s="2">
+        <v>3</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M6" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="G7" s="7">
+        <v>4</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="K7" s="2">
+        <v>4</v>
+      </c>
+      <c r="L7" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="M7" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="K8" s="2">
+        <v>5</v>
+      </c>
+      <c r="L8" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="M8" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" s="2"/>
+      <c r="K9" s="2">
+        <v>6</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="M9" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K10" s="2">
+        <v>7</v>
+      </c>
+      <c r="L10" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="M10" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="K2:L2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.28515625" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" customWidth="1"/>
+    <col min="4" max="4" width="45.5703125" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="42.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="57.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="10"/>
+      <c r="G2" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="13"/>
+      <c r="K2" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="L2" s="13"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" s="3"/>
+      <c r="G3" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="G4" s="6">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" s="6">
+        <v>1</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="G5" s="7">
+        <v>2</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="K5" s="7">
+        <v>2</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="G6" s="7">
+        <v>3</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K6" s="2">
+        <v>3</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M6" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="G7" s="7">
+        <v>4</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="K7" s="2">
+        <v>4</v>
+      </c>
+      <c r="L7" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="M7" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="K8" s="2">
+        <v>5</v>
+      </c>
+      <c r="L8" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="M8" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K9" s="2">
+        <v>6</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="M9" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K10" s="2">
+        <v>7</v>
+      </c>
+      <c r="L10" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="M10" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="K2:L2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/New folder/Book1.xlsx
+++ b/New folder/Book1.xlsx
@@ -4,22 +4,26 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010" activeTab="9"/>
   </bookViews>
   <sheets>
-    <sheet name="Port" sheetId="7" r:id="rId1"/>
-    <sheet name="Continent" sheetId="1" r:id="rId2"/>
-    <sheet name="Country" sheetId="4" r:id="rId3"/>
-    <sheet name="City" sheetId="6" r:id="rId4"/>
-    <sheet name="Airport" sheetId="8" r:id="rId5"/>
-    <sheet name="Sheet1" sheetId="5" r:id="rId6"/>
+    <sheet name="Continent" sheetId="1" r:id="rId1"/>
+    <sheet name="Country" sheetId="4" r:id="rId2"/>
+    <sheet name="City" sheetId="6" r:id="rId3"/>
+    <sheet name="Airport" sheetId="8" r:id="rId4"/>
+    <sheet name="Port" sheetId="7" r:id="rId5"/>
+    <sheet name="Airline" sheetId="9" r:id="rId6"/>
+    <sheet name="Vessel" sheetId="10" r:id="rId7"/>
+    <sheet name="Cost" sheetId="11" r:id="rId8"/>
+    <sheet name="Contact" sheetId="12" r:id="rId9"/>
+    <sheet name="MstBillOfLading" sheetId="13" r:id="rId10"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="907" uniqueCount="130">
   <si>
     <t>Field Name</t>
   </si>
@@ -174,9 +178,6 @@
     <t>DeletedOn = DateTime.Now</t>
   </si>
   <si>
-    <t>Name, Abbrevatio must unique</t>
-  </si>
-  <si>
     <t>Associations</t>
   </si>
   <si>
@@ -214,6 +215,204 @@
   </si>
   <si>
     <t>Table Name : AirPort</t>
+  </si>
+  <si>
+    <t>Table Name : Airline</t>
+  </si>
+  <si>
+    <t>Name, Abbrevatio ,cannot null</t>
+  </si>
+  <si>
+    <t>Name, Abbrevatio  cannot null</t>
+  </si>
+  <si>
+    <t>Name must unique</t>
+  </si>
+  <si>
+    <t>Name  must unique</t>
+  </si>
+  <si>
+    <t>Table Name : Vessel</t>
+  </si>
+  <si>
+    <t>Table Name : Cost</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>bool</t>
+  </si>
+  <si>
+    <t>CBM</t>
+  </si>
+  <si>
+    <t>Remarks</t>
+  </si>
+  <si>
+    <t>CostType</t>
+  </si>
+  <si>
+    <t>1 : Sea , 2 : Air</t>
+  </si>
+  <si>
+    <t>Name ,Quantity,CBM,Remarks,CostType cannot null</t>
+  </si>
+  <si>
+    <t>Table Name : Contact</t>
+  </si>
+  <si>
+    <t>ContactStatus</t>
+  </si>
+  <si>
+    <t>ContactName</t>
+  </si>
+  <si>
+    <t>ContactAddress</t>
+  </si>
+  <si>
+    <t>varchar(500)</t>
+  </si>
+  <si>
+    <t>ContactPerson</t>
+  </si>
+  <si>
+    <t>PostalCode</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>Fax</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>NPWP</t>
+  </si>
+  <si>
+    <t>NPPKP</t>
+  </si>
+  <si>
+    <t>PortId</t>
+  </si>
+  <si>
+    <t>AirPortId</t>
+  </si>
+  <si>
+    <t>MarketId</t>
+  </si>
+  <si>
+    <t>CreditTermInDays</t>
+  </si>
+  <si>
+    <t>CreditTermInIDR</t>
+  </si>
+  <si>
+    <t>decimal(18, 0)</t>
+  </si>
+  <si>
+    <t>ShipmentStatus</t>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+  </si>
+  <si>
+    <t>LastShipmentDate</t>
+  </si>
+  <si>
+    <t>IsAgent</t>
+  </si>
+  <si>
+    <t>AgentCode</t>
+  </si>
+  <si>
+    <t>IsShipper</t>
+  </si>
+  <si>
+    <t>ShipperCode</t>
+  </si>
+  <si>
+    <t>IsConsignee</t>
+  </si>
+  <si>
+    <t>ConsigneeCode</t>
+  </si>
+  <si>
+    <t>IsIATA</t>
+  </si>
+  <si>
+    <t>IATACode</t>
+  </si>
+  <si>
+    <t>IsSSLine</t>
+  </si>
+  <si>
+    <t>SSLineCode</t>
+  </si>
+  <si>
+    <t>IsDepo</t>
+  </si>
+  <si>
+    <t>DepoCode</t>
+  </si>
+  <si>
+    <t>IsEMKL</t>
+  </si>
+  <si>
+    <t>EMKLCode</t>
+  </si>
+  <si>
+    <t>FK ID(CityLocation)</t>
+  </si>
+  <si>
+    <t>FK ID(Port)</t>
+  </si>
+  <si>
+    <t>FK ID(AirPort)</t>
+  </si>
+  <si>
+    <t>FK ID (AccountUser)</t>
+  </si>
+  <si>
+    <t>UserType = MKT</t>
+  </si>
+  <si>
+    <t>IF isAgent = true then AgentCode = start from 1 foreach officeid then increment by 1</t>
+  </si>
+  <si>
+    <t>IF isShipper = true then ShipperCode = start from 1 foreach officeid then increment by 1</t>
+  </si>
+  <si>
+    <t>IF isIATAr = true then IATACode = start from 1 foreach officeid then increment by 1</t>
+  </si>
+  <si>
+    <t>IF isDepo = true then DepoCode = start from 1 foreach officeid then increment by 1</t>
+  </si>
+  <si>
+    <t>IF isSSLine = true then SSLineCode = start from 1 foreach officeid then increment by 1</t>
+  </si>
+  <si>
+    <t>IF isEMKL = true then EMKLCode = start from 1 foreach officeid then increment by 1</t>
+  </si>
+  <si>
+    <t>Table Name : MstBillOfLading</t>
+  </si>
+  <si>
+    <t>PT / OT(Other) / CV</t>
+  </si>
+  <si>
+    <t>ShipmentBy</t>
+  </si>
+  <si>
+    <t>isAgent,isShipper,isIATA,isDepo,isSSline,isEMKL all value cannot False</t>
+  </si>
+  <si>
+    <t>Name, Abbrevation , Shipment By cannot null</t>
+  </si>
+  <si>
+    <t>ContactStatus,ContactName,ContactAddress,CityId Cannot Null</t>
   </si>
 </sst>
 </file>
@@ -307,7 +506,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -332,13 +531,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -640,10 +845,881 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.28515625" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" customWidth="1"/>
+    <col min="4" max="5" width="45.5703125" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" customWidth="1"/>
+    <col min="8" max="8" width="7.5703125" customWidth="1"/>
+    <col min="9" max="9" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="57.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="10"/>
+      <c r="G2" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="16"/>
+      <c r="K2" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="L2" s="16"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" s="3"/>
+      <c r="G3" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="G4" s="6">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K4" s="6">
+        <v>1</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="G5" s="7">
+        <v>2</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K5" s="7">
+        <v>2</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="G6" s="7">
+        <v>3</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K6" s="7">
+        <v>3</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M6" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="G7" s="7">
+        <v>4</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K7" s="7">
+        <v>4</v>
+      </c>
+      <c r="L7" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="M7" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K8" s="7">
+        <v>5</v>
+      </c>
+      <c r="L8" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="M8" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K9" s="7">
+        <v>6</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="M9" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="K10" s="7">
+        <v>7</v>
+      </c>
+      <c r="L10" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="M10" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="K2:L2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.28515625" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" customWidth="1"/>
+    <col min="4" max="4" width="45.5703125" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="48" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="77.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="11"/>
+      <c r="G2" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="16"/>
+      <c r="K2" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="L2" s="16"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" s="3"/>
+      <c r="G3" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="G4" s="6">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="K4" s="6">
+        <v>1</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="G5" s="7">
+        <v>2</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="K5" s="13">
+        <v>2</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="G6" s="7">
+        <v>3</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="K6" s="13">
+        <v>3</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M6" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="G7" s="7">
+        <v>4</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="K7" s="13">
+        <v>4</v>
+      </c>
+      <c r="L7" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="M7" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="I8" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="K8" s="13">
+        <v>5</v>
+      </c>
+      <c r="L8" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="M8" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="K9" s="13">
+        <v>6</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="M9" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K10" s="13">
+        <v>7</v>
+      </c>
+      <c r="L10" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="M10" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="K2:L2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -660,30 +1736,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
+      <c r="A1" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
       <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
       <c r="E2" s="10"/>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="H2" s="13"/>
-      <c r="K2" s="13" t="s">
+      <c r="H2" s="16"/>
+      <c r="K2" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="L2" s="13"/>
+      <c r="L2" s="16"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -699,7 +1775,7 @@
         <v>2</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="5" t="s">
@@ -742,7 +1818,7 @@
         <v>38</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="K4" s="6">
         <v>1</v>
@@ -756,13 +1832,13 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>31</v>
@@ -775,7 +1851,7 @@
         <v>38</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="K5" s="7">
         <v>2</v>
@@ -806,9 +1882,9 @@
         <v>40</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="K6" s="2">
+        <v>52</v>
+      </c>
+      <c r="K6" s="7">
         <v>3</v>
       </c>
       <c r="L6" s="8" t="s">
@@ -820,13 +1896,13 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -837,9 +1913,9 @@
         <v>40</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="K7" s="2">
+        <v>67</v>
+      </c>
+      <c r="K7" s="7">
         <v>4</v>
       </c>
       <c r="L7" s="8" t="s">
@@ -851,7 +1927,7 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>4</v>
@@ -861,12 +1937,9 @@
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="I8" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="K8" s="2">
+        <v>29</v>
+      </c>
+      <c r="K8" s="7">
         <v>5</v>
       </c>
       <c r="L8" s="8" t="s">
@@ -878,7 +1951,7 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>4</v>
@@ -888,9 +1961,9 @@
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K9" s="2">
+        <v>27</v>
+      </c>
+      <c r="K9" s="7">
         <v>6</v>
       </c>
       <c r="L9" s="8" t="s">
@@ -902,19 +1975,17 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D10" s="2"/>
-      <c r="E10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K10" s="2">
+      <c r="E10" s="2"/>
+      <c r="K10" s="7">
         <v>7</v>
       </c>
       <c r="L10" s="8" t="s">
@@ -926,38 +1997,38 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
+      <c r="E11" s="2" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D12" s="2"/>
-      <c r="E12" s="2" t="s">
-        <v>27</v>
-      </c>
+      <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>9</v>
@@ -1003,358 +2074,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M14"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="25.28515625" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" customWidth="1"/>
-    <col min="4" max="5" width="45.5703125" customWidth="1"/>
-    <col min="7" max="7" width="9.85546875" customWidth="1"/>
-    <col min="8" max="8" width="7.5703125" customWidth="1"/>
-    <col min="9" max="9" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="57.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="10"/>
-      <c r="G2" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="H2" s="13"/>
-      <c r="K2" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="L2" s="13"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="G4" s="6">
-        <v>1</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="K4" s="6">
-        <v>1</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" s="2"/>
-      <c r="G5" s="7">
-        <v>2</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="K5" s="7">
-        <v>2</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="G6" s="7">
-        <v>3</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="K6" s="2">
-        <v>3</v>
-      </c>
-      <c r="L6" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="M6" s="8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="G7" s="7">
-        <v>4</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="K7" s="2">
-        <v>4</v>
-      </c>
-      <c r="L7" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="M7" s="8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K8" s="2">
-        <v>5</v>
-      </c>
-      <c r="L8" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="M8" s="8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K9" s="2">
-        <v>6</v>
-      </c>
-      <c r="L9" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="M9" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="K10" s="2">
-        <v>7</v>
-      </c>
-      <c r="L10" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="M10" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="K2:L2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1371,30 +2096,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
       <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
       <c r="E2" s="10"/>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="H2" s="13"/>
-      <c r="K2" s="13" t="s">
+      <c r="H2" s="16"/>
+      <c r="K2" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="L2" s="13"/>
+      <c r="L2" s="16"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -1410,7 +2135,7 @@
         <v>2</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="5" t="s">
@@ -1453,7 +2178,7 @@
         <v>38</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="K4" s="6">
         <v>1</v>
@@ -1486,7 +2211,7 @@
         <v>38</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="K5" s="7">
         <v>2</v>
@@ -1517,7 +2242,7 @@
         <v>40</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="K6" s="2">
         <v>3</v>
@@ -1548,7 +2273,7 @@
         <v>40</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="K7" s="2">
         <v>4</v>
@@ -1562,7 +2287,7 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>4</v>
@@ -1572,7 +2297,7 @@
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="K8" s="2">
         <v>5</v>
@@ -1586,7 +2311,7 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>4</v>
@@ -1596,8 +2321,9 @@
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
-        <v>27</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="I9" s="2"/>
       <c r="K9" s="2">
         <v>6</v>
       </c>
@@ -1610,16 +2336,18 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
+      <c r="E10" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="K10" s="2">
         <v>7</v>
       </c>
@@ -1632,38 +2360,38 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D11" s="2"/>
-      <c r="E11" s="2" t="s">
-        <v>27</v>
-      </c>
+      <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
+      <c r="E12" s="2" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>9</v>
@@ -1673,10 +2401,10 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>9</v>
@@ -1686,16 +2414,29 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1711,10 +2452,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1731,30 +2472,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
+      <c r="A1" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
       <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
       <c r="E2" s="10"/>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="H2" s="13"/>
-      <c r="K2" s="13" t="s">
+      <c r="H2" s="16"/>
+      <c r="K2" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="L2" s="13"/>
+      <c r="L2" s="16"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -1770,7 +2511,7 @@
         <v>2</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="5" t="s">
@@ -1813,7 +2554,7 @@
         <v>38</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="K4" s="6">
         <v>1</v>
@@ -1827,13 +2568,13 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>31</v>
@@ -1846,7 +2587,7 @@
         <v>38</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="K5" s="7">
         <v>2</v>
@@ -1877,7 +2618,7 @@
         <v>40</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="K6" s="2">
         <v>3</v>
@@ -1891,13 +2632,13 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -1908,7 +2649,7 @@
         <v>40</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="K7" s="2">
         <v>4</v>
@@ -1922,7 +2663,7 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>4</v>
@@ -1932,7 +2673,10 @@
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
-        <v>57</v>
+        <v>61</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>60</v>
       </c>
       <c r="K8" s="2">
         <v>5</v>
@@ -1958,7 +2702,6 @@
       <c r="E9" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I9" s="2"/>
       <c r="K9" s="2">
         <v>6</v>
       </c>
@@ -2036,10 +2779,10 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>9</v>
@@ -2049,29 +2792,16 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2090,7 +2820,7 @@
   <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2107,30 +2837,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
+      <c r="A1" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
       <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
       <c r="E2" s="10"/>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="H2" s="13"/>
-      <c r="K2" s="13" t="s">
+      <c r="H2" s="16"/>
+      <c r="K2" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="L2" s="13"/>
+      <c r="L2" s="16"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -2146,7 +2876,7 @@
         <v>2</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="5" t="s">
@@ -2189,7 +2919,7 @@
         <v>38</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K4" s="6">
         <v>1</v>
@@ -2206,7 +2936,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>9</v>
@@ -2222,7 +2952,7 @@
         <v>38</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="K5" s="7">
         <v>2</v>
@@ -2253,7 +2983,7 @@
         <v>40</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K6" s="2">
         <v>3</v>
@@ -2284,7 +3014,7 @@
         <v>40</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="K7" s="2">
         <v>4</v>
@@ -2298,7 +3028,7 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>4</v>
@@ -2308,10 +3038,10 @@
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="I8" s="14" t="s">
         <v>61</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>60</v>
       </c>
       <c r="K8" s="2">
         <v>5</v>
@@ -2452,12 +3182,1911 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="25.28515625" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" customWidth="1"/>
+    <col min="4" max="4" width="45.5703125" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="42.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="57.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="11"/>
+      <c r="G2" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="16"/>
+      <c r="K2" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="L2" s="16"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" s="3"/>
+      <c r="G3" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="G4" s="6">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="K4" s="6">
+        <v>1</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="G5" s="7">
+        <v>2</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="K5" s="7">
+        <v>2</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="G6" s="7">
+        <v>3</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K6" s="2">
+        <v>3</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M6" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="G7" s="7">
+        <v>4</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="K7" s="2">
+        <v>4</v>
+      </c>
+      <c r="L7" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="M7" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="K8" s="2">
+        <v>5</v>
+      </c>
+      <c r="L8" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="M8" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K9" s="2">
+        <v>6</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="M9" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="K10" s="2">
+        <v>7</v>
+      </c>
+      <c r="L10" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="M10" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="K2:L2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.28515625" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" customWidth="1"/>
+    <col min="4" max="4" width="45.5703125" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="42.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="57.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="11"/>
+      <c r="G2" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="16"/>
+      <c r="K2" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="L2" s="16"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" s="3"/>
+      <c r="G3" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="G4" s="6">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K4" s="6">
+        <v>1</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="G5" s="7">
+        <v>2</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="K5" s="7">
+        <v>2</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="G6" s="7">
+        <v>3</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K6" s="2">
+        <v>3</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M6" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="G7" s="7">
+        <v>4</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="K7" s="2">
+        <v>4</v>
+      </c>
+      <c r="L7" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="M7" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="K8" s="2">
+        <v>5</v>
+      </c>
+      <c r="L8" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="M8" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K9" s="2">
+        <v>6</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="M9" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="K10" s="2">
+        <v>7</v>
+      </c>
+      <c r="L10" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="M10" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="K2:L2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.28515625" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" customWidth="1"/>
+    <col min="4" max="4" width="45.5703125" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="48" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="57.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="11"/>
+      <c r="G2" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="16"/>
+      <c r="K2" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="L2" s="16"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" s="3"/>
+      <c r="G3" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="G4" s="6">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="K4" s="6">
+        <v>1</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="G5" s="7">
+        <v>2</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="K5" s="7">
+        <v>2</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="G6" s="7">
+        <v>3</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="K6" s="6">
+        <v>3</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M6" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="G7" s="7">
+        <v>4</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="K7" s="6">
+        <v>4</v>
+      </c>
+      <c r="L7" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="M7" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="I8" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="K8" s="6">
+        <v>5</v>
+      </c>
+      <c r="L8" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="M8" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="K9" s="6">
+        <v>6</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="M9" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="K10" s="6">
+        <v>7</v>
+      </c>
+      <c r="L10" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="M10" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="K2:L2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M44"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.28515625" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" customWidth="1"/>
+    <col min="4" max="4" width="45.5703125" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="64.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="77.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:13" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="11"/>
+      <c r="G2" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="16"/>
+      <c r="K2" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="L2" s="16"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" s="3"/>
+      <c r="G3" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="G4" s="6">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="K4" s="6">
+        <v>1</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="G5" s="7">
+        <v>2</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="K5" s="7">
+        <v>2</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="7">
+        <v>3</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="K6" s="6">
+        <v>3</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="G7" s="7">
+        <v>4</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="K7" s="6">
+        <v>4</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="I8" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="K8" s="6">
+        <v>5</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="K9" s="6">
+        <v>6</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="2"/>
+      <c r="K10" s="6">
+        <v>7</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="K11" s="13">
+        <v>8</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="K12" s="13">
+        <v>9</v>
+      </c>
+      <c r="L12" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M12" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="K13" s="13">
+        <v>10</v>
+      </c>
+      <c r="L13" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="M13" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="K14" s="13">
+        <v>11</v>
+      </c>
+      <c r="L14" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="M14" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="K15" s="13">
+        <v>12</v>
+      </c>
+      <c r="L15" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="M15" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="K16" s="13">
+        <v>13</v>
+      </c>
+      <c r="L16" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="M16" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E30" s="2"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E32" s="2"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E34" s="2"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E36" s="2"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E38" s="2"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="K2:L2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>